--- a/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-medicationrequest-injection.xlsx
+++ b/jpcore-r4/feature/swg5-ObservationSocialHistoryCodeの作成/StructureDefinition-jp-medicationrequest-injection.xlsx
@@ -870,7 +870,7 @@
     <t>薬剤が投与あるいはその他の用途で利用されると想定される場面についての区分である。</t>
   </si>
   <si>
-    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。FHIRでは</t>
+    <t>MedicationRequest Resourceの区分を示すコード化された概念。たとえば、どこで服薬あるいは投与されるか、治療の種別はどうかについて。</t>
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/medicationrequest-category</t>
